--- a/Saved Timeline.xlsx
+++ b/Saved Timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysing\OneDrive\Desktop\Yatharth\Work\Classes\Advanced HCI\Timeline\Timeilne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxs190009\Documents\GitHub\Timeilne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6BB93C7-B40F-42DB-B424-E359344B2FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45E67F-7F7B-4EA9-BD0A-1F27E8259987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="15330" windowHeight="10620" xr2:uid="{72523172-201A-4A3C-8125-5E0E4AA779E2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{72523172-201A-4A3C-8125-5E0E4AA779E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Event Id</t>
   </si>
@@ -77,42 +77,6 @@
   </si>
   <si>
     <t>Image</t>
-  </si>
-  <si>
-    <t>An event in history</t>
-  </si>
-  <si>
-    <t>09/10/1886</t>
-  </si>
-  <si>
-    <t>War</t>
-  </si>
-  <si>
-    <t>Event #2</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>First Ranged Event</t>
-  </si>
-  <si>
-    <t>Event 1</t>
-  </si>
-  <si>
-    <t>Event 2</t>
-  </si>
-  <si>
-    <t>Ranged Event</t>
-  </si>
-  <si>
-    <t>04/05/1873</t>
-  </si>
-  <si>
-    <t>06/04/1876</t>
-  </si>
-  <si>
-    <t>Act</t>
   </si>
   <si>
     <t>Major Tick</t>
@@ -481,19 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F2AFF0-56DB-428A-B12C-29FF6CE9D9DB}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,71 +501,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.41180555555555554</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2">
-        <v>27549</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,23 +520,23 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -640,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>10</v>
